--- a/Code/Results/Cases/Case_5_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.492166546859323</v>
+        <v>1.70423055536827</v>
       </c>
       <c r="C2">
-        <v>1.498530536136627</v>
+        <v>0.711592290709234</v>
       </c>
       <c r="D2">
-        <v>0.02195262508735141</v>
+        <v>0.06462893496711075</v>
       </c>
       <c r="E2">
-        <v>0.107199028942599</v>
+        <v>0.1267172724068644</v>
       </c>
       <c r="F2">
-        <v>2.963730669201539</v>
+        <v>2.986501631082831</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.224502591129337</v>
+        <v>1.363216454538488</v>
       </c>
       <c r="J2">
-        <v>0.2372417913681488</v>
+        <v>0.2204158715208138</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.01428846158035</v>
+        <v>1.586601651986825</v>
       </c>
       <c r="C3">
-        <v>1.292029301575724</v>
+        <v>0.6620414870534432</v>
       </c>
       <c r="D3">
-        <v>0.01964583753759541</v>
+        <v>0.06429010423621406</v>
       </c>
       <c r="E3">
-        <v>0.09532147589370865</v>
+        <v>0.1246604846345072</v>
       </c>
       <c r="F3">
-        <v>2.680685796016945</v>
+        <v>2.938505611647656</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.133109621605101</v>
+        <v>1.350534565481766</v>
       </c>
       <c r="J3">
-        <v>0.210421698147897</v>
+        <v>0.2154193353751879</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.725792844507794</v>
+        <v>1.515334518320401</v>
       </c>
       <c r="C4">
-        <v>1.167903851331687</v>
+        <v>0.6320526742339894</v>
       </c>
       <c r="D4">
-        <v>0.01823297808495994</v>
+        <v>0.06409995989472606</v>
       </c>
       <c r="E4">
-        <v>0.08822173708061243</v>
+        <v>0.1234666764558909</v>
       </c>
       <c r="F4">
-        <v>2.514758160677061</v>
+        <v>2.910970408700294</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.080532282025729</v>
+        <v>1.343614453065236</v>
       </c>
       <c r="J4">
-        <v>0.194500870063834</v>
+        <v>0.2124921238354887</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.609278938375098</v>
+        <v>1.486532062299204</v>
       </c>
       <c r="C5">
-        <v>1.117893909460463</v>
+        <v>0.6199403482800676</v>
       </c>
       <c r="D5">
-        <v>0.01765798809715236</v>
+        <v>0.06402702871551824</v>
       </c>
       <c r="E5">
-        <v>0.08537150477262401</v>
+        <v>0.1229975236956768</v>
       </c>
       <c r="F5">
-        <v>2.448902603413927</v>
+        <v>2.900232230864745</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.059905288702709</v>
+        <v>1.341010528148978</v>
       </c>
       <c r="J5">
-        <v>0.188134259942963</v>
+        <v>0.2113344033914046</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589990208277584</v>
+        <v>1.481763864135132</v>
       </c>
       <c r="C6">
-        <v>1.109621666895407</v>
+        <v>0.6179356167093601</v>
       </c>
       <c r="D6">
-        <v>0.01756255446677457</v>
+        <v>0.06401519519099352</v>
       </c>
       <c r="E6">
-        <v>0.08490066816077757</v>
+        <v>0.122920667204145</v>
       </c>
       <c r="F6">
-        <v>2.438067804418623</v>
+        <v>2.898478203933493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.056525937471882</v>
+        <v>1.340591145240339</v>
       </c>
       <c r="J6">
-        <v>0.1870839685189196</v>
+        <v>0.2111442805295667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.724217478374783</v>
+        <v>1.514945110330757</v>
       </c>
       <c r="C7">
-        <v>1.167227205828624</v>
+        <v>0.6318888859562435</v>
       </c>
       <c r="D7">
-        <v>0.01822522062426302</v>
+        <v>0.06409895780840102</v>
       </c>
       <c r="E7">
-        <v>0.08818313085618357</v>
+        <v>0.1234602791568555</v>
       </c>
       <c r="F7">
-        <v>2.513863148100782</v>
+        <v>2.910823640692882</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.08025097914264</v>
+        <v>1.343578463156383</v>
       </c>
       <c r="J7">
-        <v>0.1944145370590888</v>
+        <v>0.212476368429229</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.326253032243812</v>
+        <v>1.663472547840797</v>
       </c>
       <c r="C8">
-        <v>1.426712702588645</v>
+        <v>0.6944160393871357</v>
       </c>
       <c r="D8">
-        <v>0.02115642989812727</v>
+        <v>0.06450842268699475</v>
       </c>
       <c r="E8">
-        <v>0.1030600106849917</v>
+        <v>0.1259937350238651</v>
       </c>
       <c r="F8">
-        <v>2.8643678229827</v>
+        <v>2.969548761537453</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.192198192101998</v>
+        <v>1.358662755243714</v>
       </c>
       <c r="J8">
-        <v>0.2278704142009218</v>
+        <v>0.2186637237224289</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.555565669945906</v>
+        <v>1.962409578619031</v>
       </c>
       <c r="C9">
-        <v>1.961799944051222</v>
+        <v>0.8205485658605198</v>
       </c>
       <c r="D9">
-        <v>0.02694013055683797</v>
+        <v>0.06545117601579875</v>
       </c>
       <c r="E9">
-        <v>0.1340533827883768</v>
+        <v>0.1315118951700534</v>
       </c>
       <c r="F9">
-        <v>3.62514722609086</v>
+        <v>3.10024043224584</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.444452947137648</v>
+        <v>1.395205310009516</v>
       </c>
       <c r="J9">
-        <v>0.2986496977375594</v>
+        <v>0.2319248999538672</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.504084915386954</v>
+        <v>2.186854196268314</v>
       </c>
       <c r="C10">
-        <v>2.379161662630224</v>
+        <v>0.9154579630121589</v>
       </c>
       <c r="D10">
-        <v>0.03122550439209704</v>
+        <v>0.06622621222108904</v>
       </c>
       <c r="E10">
-        <v>0.1583986572849341</v>
+        <v>0.1359049820292952</v>
       </c>
       <c r="F10">
-        <v>4.246692415705439</v>
+        <v>3.20599492240612</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.657230629147875</v>
+        <v>1.42642111028627</v>
       </c>
       <c r="J10">
-        <v>0.3551527055511912</v>
+        <v>0.242372866718668</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.949673644508039</v>
+        <v>2.290037890962537</v>
       </c>
       <c r="C11">
-        <v>2.576535493644712</v>
+        <v>0.9591429206124644</v>
       </c>
       <c r="D11">
-        <v>0.03318718057835923</v>
+        <v>0.06659611178756109</v>
       </c>
       <c r="E11">
-        <v>0.1699417083954486</v>
+        <v>0.1379779485215167</v>
       </c>
       <c r="F11">
-        <v>4.547869856044969</v>
+        <v>3.256278357772885</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.762016414495278</v>
+        <v>1.441597586395005</v>
       </c>
       <c r="J11">
-        <v>0.3822005637460677</v>
+        <v>0.2472829179433376</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.120861249236896</v>
+        <v>2.3292687759008</v>
       </c>
       <c r="C12">
-        <v>2.652583615816468</v>
+        <v>0.9757602543112966</v>
       </c>
       <c r="D12">
-        <v>0.03393222491195758</v>
+        <v>0.06673862651940254</v>
       </c>
       <c r="E12">
-        <v>0.1743927799494855</v>
+        <v>0.1387737041175754</v>
       </c>
       <c r="F12">
-        <v>4.665056479148831</v>
+        <v>3.27563678475957</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.803050352963623</v>
+        <v>1.44748705910132</v>
       </c>
       <c r="J12">
-        <v>0.392673181154052</v>
+        <v>0.249165134036204</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.08387627443949</v>
+        <v>2.320812670831515</v>
       </c>
       <c r="C13">
-        <v>2.636143119977476</v>
+        <v>0.9721780648821436</v>
       </c>
       <c r="D13">
-        <v>0.03377166041273938</v>
+        <v>0.06670782561716493</v>
       </c>
       <c r="E13">
-        <v>0.1734303803905846</v>
+        <v>0.1386018441570016</v>
       </c>
       <c r="F13">
-        <v>4.639670037339187</v>
+        <v>3.271453423834856</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.79414910087857</v>
+        <v>1.446212285892898</v>
       </c>
       <c r="J13">
-        <v>0.3904068206437046</v>
+        <v>0.2487587427599323</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.963705493594034</v>
+        <v>2.293262273343714</v>
       </c>
       <c r="C14">
-        <v>2.582764383053757</v>
+        <v>0.9605085314982489</v>
       </c>
       <c r="D14">
-        <v>0.03324842887434443</v>
+        <v>0.06660778790896416</v>
       </c>
       <c r="E14">
-        <v>0.1703062177901131</v>
+        <v>0.1380431997022171</v>
       </c>
       <c r="F14">
-        <v>4.557444901167685</v>
+        <v>3.257864605058927</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.765363867922431</v>
+        <v>1.4420792495077</v>
       </c>
       <c r="J14">
-        <v>0.3830573046292329</v>
+        <v>0.2474373087047184</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.890430724663304</v>
+        <v>2.276407419069869</v>
       </c>
       <c r="C15">
-        <v>2.550245977724842</v>
+        <v>0.9533703878873325</v>
       </c>
       <c r="D15">
-        <v>0.03292823562549785</v>
+        <v>0.06654682843422677</v>
       </c>
       <c r="E15">
-        <v>0.1684034046560043</v>
+        <v>0.1377024177325907</v>
       </c>
       <c r="F15">
-        <v>4.507504090767384</v>
+        <v>3.249582498917164</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.747915073502142</v>
+        <v>1.439566261556749</v>
       </c>
       <c r="J15">
-        <v>0.3785866950288863</v>
+        <v>0.2466308810141982</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.47528310944017</v>
+        <v>2.180132835181098</v>
       </c>
       <c r="C16">
-        <v>2.366432482516188</v>
+        <v>0.9126134354962119</v>
       </c>
       <c r="D16">
-        <v>0.03109758608118085</v>
+        <v>0.066202382837389</v>
       </c>
       <c r="E16">
-        <v>0.1576547458308397</v>
+        <v>0.1357710128124126</v>
       </c>
       <c r="F16">
-        <v>4.227420400199975</v>
+        <v>3.202752926076045</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.650560151625669</v>
+        <v>1.425449114453627</v>
       </c>
       <c r="J16">
-        <v>0.353415124221101</v>
+        <v>0.2420551706396452</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.224495713021497</v>
+        <v>2.121350035276521</v>
       </c>
       <c r="C17">
-        <v>2.255742412022187</v>
+        <v>0.8877420390746238</v>
       </c>
       <c r="D17">
-        <v>0.0299779617051783</v>
+        <v>0.06599547948107443</v>
       </c>
       <c r="E17">
-        <v>0.1511890585597442</v>
+        <v>0.1346052826549027</v>
       </c>
       <c r="F17">
-        <v>4.06064014153938</v>
+        <v>3.174584724031376</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.593017924810212</v>
+        <v>1.417040221467374</v>
       </c>
       <c r="J17">
-        <v>0.3383417956802646</v>
+        <v>0.2392885843727868</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.081547542848341</v>
+        <v>2.087641522741251</v>
       </c>
       <c r="C18">
-        <v>2.192767999330897</v>
+        <v>0.8734846043910807</v>
       </c>
       <c r="D18">
-        <v>0.02933510396370309</v>
+        <v>0.06587810844619213</v>
       </c>
       <c r="E18">
-        <v>0.1475133708165579</v>
+        <v>0.1339417973468819</v>
       </c>
       <c r="F18">
-        <v>3.966414033625597</v>
+        <v>3.158587592075264</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.560659311820118</v>
+        <v>1.412295412065291</v>
       </c>
       <c r="J18">
-        <v>0.3297960088780769</v>
+        <v>0.2377120983201308</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.033358903850001</v>
+        <v>2.076245831244421</v>
       </c>
       <c r="C19">
-        <v>2.171558453816715</v>
+        <v>0.8686654721012701</v>
       </c>
       <c r="D19">
-        <v>0.02911762387724082</v>
+        <v>0.06583865087708318</v>
       </c>
       <c r="E19">
-        <v>0.1462759157123692</v>
+        <v>0.1337183554010259</v>
       </c>
       <c r="F19">
-        <v>3.934789422187691</v>
+        <v>3.153206223576717</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.549824342431023</v>
+        <v>1.410704598339393</v>
       </c>
       <c r="J19">
-        <v>0.3269228257922094</v>
+        <v>0.2371808575222047</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.251055261478541</v>
+        <v>2.127597016315462</v>
       </c>
       <c r="C20">
-        <v>2.267452466828843</v>
+        <v>0.8903846704398575</v>
       </c>
       <c r="D20">
-        <v>0.03009702875334597</v>
+        <v>0.06601733592017922</v>
       </c>
       <c r="E20">
-        <v>0.151872785777158</v>
+        <v>0.1347286505595378</v>
       </c>
       <c r="F20">
-        <v>4.078214826416342</v>
+        <v>3.177562083442581</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.59906562570886</v>
+        <v>1.417925850269683</v>
       </c>
       <c r="J20">
-        <v>0.3399332974536122</v>
+        <v>0.2395815604075153</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.998932238571228</v>
+        <v>2.301350205025415</v>
       </c>
       <c r="C21">
-        <v>2.598405534760502</v>
+        <v>0.9639341150630685</v>
       </c>
       <c r="D21">
-        <v>0.03340205097484272</v>
+        <v>0.06663710553736735</v>
       </c>
       <c r="E21">
-        <v>0.1712215780698259</v>
+        <v>0.1382069944567021</v>
       </c>
       <c r="F21">
-        <v>4.581506967348588</v>
+        <v>3.261847327021655</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.773780236031385</v>
+        <v>1.443289339129706</v>
       </c>
       <c r="J21">
-        <v>0.3852094622688895</v>
+        <v>0.247824822546562</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.502264366287136</v>
+        <v>2.415826630459094</v>
       </c>
       <c r="C22">
-        <v>2.822456671685359</v>
+        <v>1.012439540589924</v>
       </c>
       <c r="D22">
-        <v>0.03557517353327455</v>
+        <v>0.06705637066131231</v>
       </c>
       <c r="E22">
-        <v>0.1843408077609965</v>
+        <v>0.1405430838728137</v>
       </c>
       <c r="F22">
-        <v>4.929015547874627</v>
+        <v>3.318783462534213</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.895980143798951</v>
+        <v>1.46069725699742</v>
       </c>
       <c r="J22">
-        <v>0.4161638473639329</v>
+        <v>0.2533458026802435</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.232134362266095</v>
+        <v>2.354643743596228</v>
       </c>
       <c r="C23">
-        <v>2.702080917212413</v>
+        <v>0.9865108519380215</v>
       </c>
       <c r="D23">
-        <v>0.03441396768015892</v>
+        <v>0.0668313172211441</v>
       </c>
       <c r="E23">
-        <v>0.1772907096957752</v>
+        <v>0.1392905061520437</v>
       </c>
       <c r="F23">
-        <v>4.74165958084788</v>
+        <v>3.288224755190413</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.829949051253081</v>
+        <v>1.45132955417175</v>
       </c>
       <c r="J23">
-        <v>0.3995041572768798</v>
+        <v>0.2503868400756772</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.239043880652389</v>
+        <v>2.124772486884865</v>
       </c>
       <c r="C24">
-        <v>2.262156303158349</v>
+        <v>0.8891898077601468</v>
       </c>
       <c r="D24">
-        <v>0.03004319598978356</v>
+        <v>0.06600744969768613</v>
       </c>
       <c r="E24">
-        <v>0.1515635442928058</v>
+        <v>0.1346728550381897</v>
       </c>
       <c r="F24">
-        <v>4.07026418242279</v>
+        <v>3.17621540552895</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.596329222566467</v>
+        <v>1.417525178639039</v>
       </c>
       <c r="J24">
-        <v>0.3392134082000666</v>
+        <v>0.2394490621656189</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.216308699770195</v>
+        <v>1.880703683866045</v>
       </c>
       <c r="C25">
-        <v>1.81345825123941</v>
+        <v>0.7860400888342269</v>
       </c>
       <c r="D25">
-        <v>0.02537038089648647</v>
+        <v>0.06518146600801344</v>
       </c>
       <c r="E25">
-        <v>0.1254300353307656</v>
+        <v>0.1299598391042061</v>
       </c>
       <c r="F25">
-        <v>3.409787116287276</v>
+        <v>3.063194701740912</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.371998448350524</v>
+        <v>1.384561511340024</v>
       </c>
       <c r="J25">
-        <v>0.2788208338807436</v>
+        <v>0.2282148771386829</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_204/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.70423055536827</v>
+        <v>3.492166546859323</v>
       </c>
       <c r="C2">
-        <v>0.711592290709234</v>
+        <v>1.498530536136855</v>
       </c>
       <c r="D2">
-        <v>0.06462893496711075</v>
+        <v>0.02195262508733364</v>
       </c>
       <c r="E2">
-        <v>0.1267172724068644</v>
+        <v>0.1071990289425599</v>
       </c>
       <c r="F2">
-        <v>2.986501631082831</v>
+        <v>2.96373066920151</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.363216454538488</v>
+        <v>1.224502591129308</v>
       </c>
       <c r="J2">
-        <v>0.2204158715208138</v>
+        <v>0.2372417913680778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.586601651986825</v>
+        <v>3.014288461580236</v>
       </c>
       <c r="C3">
-        <v>0.6620414870534432</v>
+        <v>1.292029301576008</v>
       </c>
       <c r="D3">
-        <v>0.06429010423621406</v>
+        <v>0.01964583753748528</v>
       </c>
       <c r="E3">
-        <v>0.1246604846345072</v>
+        <v>0.09532147589376905</v>
       </c>
       <c r="F3">
-        <v>2.938505611647656</v>
+        <v>2.680685796017016</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.350534565481766</v>
+        <v>1.133109621605144</v>
       </c>
       <c r="J3">
-        <v>0.2154193353751879</v>
+        <v>0.2104216981478402</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.515334518320401</v>
+        <v>2.725792844507794</v>
       </c>
       <c r="C4">
-        <v>0.6320526742339894</v>
+        <v>1.167903851331516</v>
       </c>
       <c r="D4">
-        <v>0.06409995989472606</v>
+        <v>0.01823297808529034</v>
       </c>
       <c r="E4">
-        <v>0.1234666764558909</v>
+        <v>0.08822173708061598</v>
       </c>
       <c r="F4">
-        <v>2.910970408700294</v>
+        <v>2.514758160677061</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.343614453065236</v>
+        <v>1.080532282025736</v>
       </c>
       <c r="J4">
-        <v>0.2124921238354887</v>
+        <v>0.1945008700638624</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.486532062299204</v>
+        <v>2.609278938375155</v>
       </c>
       <c r="C5">
-        <v>0.6199403482800676</v>
+        <v>1.117893909460236</v>
       </c>
       <c r="D5">
-        <v>0.06402702871551824</v>
+        <v>0.01765798809713104</v>
       </c>
       <c r="E5">
-        <v>0.1229975236956768</v>
+        <v>0.08537150477264532</v>
       </c>
       <c r="F5">
-        <v>2.900232230864745</v>
+        <v>2.448902603413941</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.341010528148978</v>
+        <v>1.059905288702723</v>
       </c>
       <c r="J5">
-        <v>0.2113344033914046</v>
+        <v>0.1881342599429345</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481763864135132</v>
+        <v>2.589990208277641</v>
       </c>
       <c r="C6">
-        <v>0.6179356167093601</v>
+        <v>1.109621666895521</v>
       </c>
       <c r="D6">
-        <v>0.06401519519099352</v>
+        <v>0.01756255446686694</v>
       </c>
       <c r="E6">
-        <v>0.122920667204145</v>
+        <v>0.08490066816074204</v>
       </c>
       <c r="F6">
-        <v>2.898478203933493</v>
+        <v>2.438067804418608</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.340591145240339</v>
+        <v>1.056525937471875</v>
       </c>
       <c r="J6">
-        <v>0.2111442805295667</v>
+        <v>0.1870839685188557</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.514945110330757</v>
+        <v>2.724217478374783</v>
       </c>
       <c r="C7">
-        <v>0.6318888859562435</v>
+        <v>1.167227205828453</v>
       </c>
       <c r="D7">
-        <v>0.06409895780840102</v>
+        <v>0.01822522062423815</v>
       </c>
       <c r="E7">
-        <v>0.1234602791568555</v>
+        <v>0.08818313085617646</v>
       </c>
       <c r="F7">
-        <v>2.910823640692882</v>
+        <v>2.513863148100782</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.343578463156383</v>
+        <v>1.080250979142662</v>
       </c>
       <c r="J7">
-        <v>0.212476368429229</v>
+        <v>0.1944145370590604</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.663472547840797</v>
+        <v>3.32625303224404</v>
       </c>
       <c r="C8">
-        <v>0.6944160393871357</v>
+        <v>1.426712702589157</v>
       </c>
       <c r="D8">
-        <v>0.06450842268699475</v>
+        <v>0.02115642989811306</v>
       </c>
       <c r="E8">
-        <v>0.1259937350238651</v>
+        <v>0.1030600106850166</v>
       </c>
       <c r="F8">
-        <v>2.969548761537453</v>
+        <v>2.864367822982757</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.358662755243714</v>
+        <v>1.192198192101998</v>
       </c>
       <c r="J8">
-        <v>0.2186637237224289</v>
+        <v>0.2278704142008223</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.962409578619031</v>
+        <v>4.55556566994585</v>
       </c>
       <c r="C9">
-        <v>0.8205485658605198</v>
+        <v>1.961799944051222</v>
       </c>
       <c r="D9">
-        <v>0.06545117601579875</v>
+        <v>0.02694013055658218</v>
       </c>
       <c r="E9">
-        <v>0.1315118951700534</v>
+        <v>0.1340533827883768</v>
       </c>
       <c r="F9">
-        <v>3.10024043224584</v>
+        <v>3.62514722609086</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.395205310009516</v>
+        <v>1.444452947137634</v>
       </c>
       <c r="J9">
-        <v>0.2319248999538672</v>
+        <v>0.2986496977374742</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.186854196268314</v>
+        <v>5.504084915386727</v>
       </c>
       <c r="C10">
-        <v>0.9154579630121589</v>
+        <v>2.379161662630054</v>
       </c>
       <c r="D10">
-        <v>0.06622621222108904</v>
+        <v>0.03122550439206861</v>
       </c>
       <c r="E10">
-        <v>0.1359049820292952</v>
+        <v>0.1583986572849412</v>
       </c>
       <c r="F10">
-        <v>3.20599492240612</v>
+        <v>4.246692415705468</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.42642111028627</v>
+        <v>1.657230629147918</v>
       </c>
       <c r="J10">
-        <v>0.242372866718668</v>
+        <v>0.3551527055509638</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.290037890962537</v>
+        <v>5.949673644508266</v>
       </c>
       <c r="C11">
-        <v>0.9591429206124644</v>
+        <v>2.576535493645167</v>
       </c>
       <c r="D11">
-        <v>0.06659611178756109</v>
+        <v>0.03318718057832371</v>
       </c>
       <c r="E11">
-        <v>0.1379779485215167</v>
+        <v>0.1699417083954913</v>
       </c>
       <c r="F11">
-        <v>3.256278357772885</v>
+        <v>4.547869856045025</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.441597586395005</v>
+        <v>1.762016414495278</v>
       </c>
       <c r="J11">
-        <v>0.2472829179433376</v>
+        <v>0.3822005637458972</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.3292687759008</v>
+        <v>6.120861249237066</v>
       </c>
       <c r="C12">
-        <v>0.9757602543112966</v>
+        <v>2.652583615816695</v>
       </c>
       <c r="D12">
-        <v>0.06673862651940254</v>
+        <v>0.03393222491207837</v>
       </c>
       <c r="E12">
-        <v>0.1387737041175754</v>
+        <v>0.17439277994945</v>
       </c>
       <c r="F12">
-        <v>3.27563678475957</v>
+        <v>4.665056479148831</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.44748705910132</v>
+        <v>1.803050352963652</v>
       </c>
       <c r="J12">
-        <v>0.249165134036204</v>
+        <v>0.3926731811540662</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.320812670831515</v>
+        <v>6.083876274439376</v>
       </c>
       <c r="C13">
-        <v>0.9721780648821436</v>
+        <v>2.63614311997776</v>
       </c>
       <c r="D13">
-        <v>0.06670782561716493</v>
+        <v>0.03377166041252622</v>
       </c>
       <c r="E13">
-        <v>0.1386018441570016</v>
+        <v>0.1734303803906059</v>
       </c>
       <c r="F13">
-        <v>3.271453423834856</v>
+        <v>4.639670037339215</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.446212285892898</v>
+        <v>1.79414910087857</v>
       </c>
       <c r="J13">
-        <v>0.2487587427599323</v>
+        <v>0.3904068206437756</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.293262273343714</v>
+        <v>5.963705493593864</v>
       </c>
       <c r="C14">
-        <v>0.9605085314982489</v>
+        <v>2.582764383053473</v>
       </c>
       <c r="D14">
-        <v>0.06660778790896416</v>
+        <v>0.03324842887446522</v>
       </c>
       <c r="E14">
-        <v>0.1380431997022171</v>
+        <v>0.1703062177902055</v>
       </c>
       <c r="F14">
-        <v>3.257864605058927</v>
+        <v>4.557444901167713</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.4420792495077</v>
+        <v>1.765363867922474</v>
       </c>
       <c r="J14">
-        <v>0.2474373087047184</v>
+        <v>0.3830573046292471</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.276407419069869</v>
+        <v>5.890430724663247</v>
       </c>
       <c r="C15">
-        <v>0.9533703878873325</v>
+        <v>2.550245977724785</v>
       </c>
       <c r="D15">
-        <v>0.06654682843422677</v>
+        <v>0.03292823562554048</v>
       </c>
       <c r="E15">
-        <v>0.1377024177325907</v>
+        <v>0.1684034046560043</v>
       </c>
       <c r="F15">
-        <v>3.249582498917164</v>
+        <v>4.507504090767412</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.439566261556749</v>
+        <v>1.747915073502142</v>
       </c>
       <c r="J15">
-        <v>0.2466308810141982</v>
+        <v>0.3785866950287016</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.180132835181098</v>
+        <v>5.475283109440284</v>
       </c>
       <c r="C16">
-        <v>0.9126134354962119</v>
+        <v>2.366432482516359</v>
       </c>
       <c r="D16">
-        <v>0.066202382837389</v>
+        <v>0.03109758608154323</v>
       </c>
       <c r="E16">
-        <v>0.1357710128124126</v>
+        <v>0.1576547458307616</v>
       </c>
       <c r="F16">
-        <v>3.202752926076045</v>
+        <v>4.227420400199975</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.425449114453627</v>
+        <v>1.650560151625683</v>
       </c>
       <c r="J16">
-        <v>0.2420551706396452</v>
+        <v>0.3534151242211578</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.121350035276521</v>
+        <v>5.22449571302127</v>
       </c>
       <c r="C17">
-        <v>0.8877420390746238</v>
+        <v>2.255742412022187</v>
       </c>
       <c r="D17">
-        <v>0.06599547948107443</v>
+        <v>0.02997796170490119</v>
       </c>
       <c r="E17">
-        <v>0.1346052826549027</v>
+        <v>0.1511890585598223</v>
       </c>
       <c r="F17">
-        <v>3.174584724031376</v>
+        <v>4.060640141539409</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.417040221467374</v>
+        <v>1.593017924810241</v>
       </c>
       <c r="J17">
-        <v>0.2392885843727868</v>
+        <v>0.3383417956803214</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.087641522741251</v>
+        <v>5.081547542848398</v>
       </c>
       <c r="C18">
-        <v>0.8734846043910807</v>
+        <v>2.19276799933084</v>
       </c>
       <c r="D18">
-        <v>0.06587810844619213</v>
+        <v>0.02933510396392336</v>
       </c>
       <c r="E18">
-        <v>0.1339417973468819</v>
+        <v>0.1475133708164904</v>
       </c>
       <c r="F18">
-        <v>3.158587592075264</v>
+        <v>3.966414033625625</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.412295412065291</v>
+        <v>1.560659311820118</v>
       </c>
       <c r="J18">
-        <v>0.2377120983201308</v>
+        <v>0.3297960088782332</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.076245831244421</v>
+        <v>5.033358903850171</v>
       </c>
       <c r="C19">
-        <v>0.8686654721012701</v>
+        <v>2.171558453816999</v>
       </c>
       <c r="D19">
-        <v>0.06583865087708318</v>
+        <v>0.0291176238773545</v>
       </c>
       <c r="E19">
-        <v>0.1337183554010259</v>
+        <v>0.1462759157123443</v>
       </c>
       <c r="F19">
-        <v>3.153206223576717</v>
+        <v>3.934789422187635</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.410704598339393</v>
+        <v>1.549824342431023</v>
       </c>
       <c r="J19">
-        <v>0.2371808575222047</v>
+        <v>0.32692282579238</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.127597016315462</v>
+        <v>5.251055261478484</v>
       </c>
       <c r="C20">
-        <v>0.8903846704398575</v>
+        <v>2.267452466828786</v>
       </c>
       <c r="D20">
-        <v>0.06601733592017922</v>
+        <v>0.03009702875341702</v>
       </c>
       <c r="E20">
-        <v>0.1347286505595378</v>
+        <v>0.1518727857770834</v>
       </c>
       <c r="F20">
-        <v>3.177562083442581</v>
+        <v>4.078214826416342</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.417925850269683</v>
+        <v>1.59906562570886</v>
       </c>
       <c r="J20">
-        <v>0.2395815604075153</v>
+        <v>0.339933297453598</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.301350205025415</v>
+        <v>5.998932238571399</v>
       </c>
       <c r="C21">
-        <v>0.9639341150630685</v>
+        <v>2.598405534760786</v>
       </c>
       <c r="D21">
-        <v>0.06663710553736735</v>
+        <v>0.03340205097505589</v>
       </c>
       <c r="E21">
-        <v>0.1382069944567021</v>
+        <v>0.1712215780697832</v>
       </c>
       <c r="F21">
-        <v>3.261847327021655</v>
+        <v>4.58150696734856</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.443289339129706</v>
+        <v>1.773780236031399</v>
       </c>
       <c r="J21">
-        <v>0.247824822546562</v>
+        <v>0.3852094622688611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.415826630459094</v>
+        <v>6.502264366287193</v>
       </c>
       <c r="C22">
-        <v>1.012439540589924</v>
+        <v>2.822456671685472</v>
       </c>
       <c r="D22">
-        <v>0.06705637066131231</v>
+        <v>0.03557517353344508</v>
       </c>
       <c r="E22">
-        <v>0.1405430838728137</v>
+        <v>0.1843408077609254</v>
       </c>
       <c r="F22">
-        <v>3.318783462534213</v>
+        <v>4.929015547874769</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.46069725699742</v>
+        <v>1.895980143798951</v>
       </c>
       <c r="J22">
-        <v>0.2533458026802435</v>
+        <v>0.4161638473640892</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.354643743596228</v>
+        <v>6.232134362266208</v>
       </c>
       <c r="C23">
-        <v>0.9865108519380215</v>
+        <v>2.702080917212925</v>
       </c>
       <c r="D23">
-        <v>0.0668313172211441</v>
+        <v>0.03441396768010208</v>
       </c>
       <c r="E23">
-        <v>0.1392905061520437</v>
+        <v>0.1772907096957468</v>
       </c>
       <c r="F23">
-        <v>3.288224755190413</v>
+        <v>4.74165958084788</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.45132955417175</v>
+        <v>1.829949051253067</v>
       </c>
       <c r="J23">
-        <v>0.2503868400756772</v>
+        <v>0.3995041572769935</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.124772486884865</v>
+        <v>5.239043880652275</v>
       </c>
       <c r="C24">
-        <v>0.8891898077601468</v>
+        <v>2.262156303157838</v>
       </c>
       <c r="D24">
-        <v>0.06600744969768613</v>
+        <v>0.03004319598965566</v>
       </c>
       <c r="E24">
-        <v>0.1346728550381897</v>
+        <v>0.1515635442927667</v>
       </c>
       <c r="F24">
-        <v>3.17621540552895</v>
+        <v>4.07026418242279</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.417525178639039</v>
+        <v>1.596329222566482</v>
       </c>
       <c r="J24">
-        <v>0.2394490621656189</v>
+        <v>0.3392134081999103</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.880703683866045</v>
+        <v>4.216308699770082</v>
       </c>
       <c r="C25">
-        <v>0.7860400888342269</v>
+        <v>1.813458251238956</v>
       </c>
       <c r="D25">
-        <v>0.06518146600801344</v>
+        <v>0.02537038089633015</v>
       </c>
       <c r="E25">
-        <v>0.1299598391042061</v>
+        <v>0.1254300353308047</v>
       </c>
       <c r="F25">
-        <v>3.063194701740912</v>
+        <v>3.409787116287305</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.384561511340024</v>
+        <v>1.371998448350553</v>
       </c>
       <c r="J25">
-        <v>0.2282148771386829</v>
+        <v>0.2788208338806157</v>
       </c>
       <c r="K25">
         <v>0</v>
